--- a/artfynd/A 67861-2019.xlsx
+++ b/artfynd/A 67861-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>73768019</v>
+        <v>88945716</v>
       </c>
       <c r="B2" t="n">
-        <v>78596</v>
+        <v>89356</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6462</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>663251.6760043118</v>
+        <v>662962.9202128272</v>
       </c>
       <c r="R2" t="n">
-        <v>6986655.306227501</v>
+        <v>6986637.199467905</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-08-03</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,17 +760,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-08-03</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Gammelasp</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73768010</v>
+        <v>73768019</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>78596</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6462</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>663249.0624749532</v>
+        <v>663251.6760043118</v>
       </c>
       <c r="R3" t="n">
-        <v>6986607.3443429</v>
+        <v>6986655.306227501</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -883,6 +878,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Gammelasp</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73768022</v>
+        <v>73768010</v>
       </c>
       <c r="B4" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,21 +925,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>663254.56388968</v>
+        <v>663249.0624749532</v>
       </c>
       <c r="R4" t="n">
-        <v>6986679.593937688</v>
+        <v>6986607.3443429</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73768009</v>
+        <v>73768022</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,21 +1037,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>663234.3649874611</v>
+        <v>663254.56388968</v>
       </c>
       <c r="R5" t="n">
-        <v>6986609.340824178</v>
+        <v>6986679.593937688</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73768004</v>
+        <v>73768009</v>
       </c>
       <c r="B6" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1145,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>663234.3262006815</v>
+        <v>663234.3649874611</v>
       </c>
       <c r="R6" t="n">
-        <v>6986482.697739778</v>
+        <v>6986609.340824178</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73768015</v>
+        <v>73768004</v>
       </c>
       <c r="B7" t="n">
-        <v>78527</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229497</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>663276.0900326757</v>
+        <v>663234.3262006815</v>
       </c>
       <c r="R7" t="n">
-        <v>6986623.276413426</v>
+        <v>6986482.697739778</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1331,11 +1331,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Asp</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1362,7 +1357,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73768020</v>
+        <v>73768015</v>
       </c>
       <c r="B8" t="n">
         <v>78527</v>
@@ -1402,10 +1397,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>663249.8781590244</v>
+        <v>663276.0900326757</v>
       </c>
       <c r="R8" t="n">
-        <v>6986663.871137016</v>
+        <v>6986623.276413426</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1452,7 +1447,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Asphögstubbe</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1479,10 +1474,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73768008</v>
+        <v>73768020</v>
       </c>
       <c r="B9" t="n">
-        <v>89356</v>
+        <v>78527</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1495,21 +1490,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>229497</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1519,10 +1514,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>663234.3654811011</v>
+        <v>663249.8781590244</v>
       </c>
       <c r="R9" t="n">
-        <v>6986600.230138458</v>
+        <v>6986663.871137016</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1569,7 +1564,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Asphögstubbe</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1596,10 +1591,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73768035</v>
+        <v>73768008</v>
       </c>
       <c r="B10" t="n">
-        <v>81236</v>
+        <v>89356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1608,25 +1603,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1636,10 +1631,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663060.2945095638</v>
+        <v>663234.3654811011</v>
       </c>
       <c r="R10" t="n">
-        <v>6986724.067602008</v>
+        <v>6986600.230138458</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1682,6 +1677,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1708,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73768021</v>
+        <v>73768035</v>
       </c>
       <c r="B11" t="n">
-        <v>78569</v>
+        <v>81236</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1724,21 +1724,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>1312</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>663255.2928173461</v>
+        <v>663060.2945095638</v>
       </c>
       <c r="R11" t="n">
-        <v>6986665.053632446</v>
+        <v>6986724.067602008</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1794,11 +1794,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Gammelasp</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1825,10 +1820,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>73768012</v>
+        <v>73768021</v>
       </c>
       <c r="B12" t="n">
-        <v>77575</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1837,25 +1832,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>637</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1865,10 +1860,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>663278.0018736831</v>
+        <v>663255.2928173461</v>
       </c>
       <c r="R12" t="n">
-        <v>6986612.439442657</v>
+        <v>6986665.053632446</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1915,7 +1910,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Gammelasp</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1942,10 +1937,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>73768033</v>
+        <v>73768012</v>
       </c>
       <c r="B13" t="n">
-        <v>89356</v>
+        <v>77575</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1954,25 +1949,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5447</v>
+        <v>637</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1982,10 +1977,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>663090.8019159045</v>
+        <v>663278.0018736831</v>
       </c>
       <c r="R13" t="n">
-        <v>6986798.021662784</v>
+        <v>6986612.439442657</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2028,6 +2023,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2054,10 +2054,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>73768014</v>
+        <v>73768033</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2066,25 +2066,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2094,10 +2094,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>663277.5917962685</v>
+        <v>663090.8019159045</v>
       </c>
       <c r="R14" t="n">
-        <v>6986620.61850487</v>
+        <v>6986798.021662784</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2140,11 +2140,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>Gran</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2171,10 +2166,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>73768032</v>
+        <v>73768014</v>
       </c>
       <c r="B15" t="n">
-        <v>77575</v>
+        <v>89392</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2183,25 +2178,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>637</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2211,10 +2206,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>663087.8898744193</v>
+        <v>663277.5917962685</v>
       </c>
       <c r="R15" t="n">
-        <v>6986801.519868135</v>
+        <v>6986620.61850487</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2261,7 +2256,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Grantorraka</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2288,7 +2283,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>73768031</v>
+        <v>73768032</v>
       </c>
       <c r="B16" t="n">
         <v>77575</v>
@@ -2328,10 +2323,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>663127.5202591131</v>
+        <v>663087.8898744193</v>
       </c>
       <c r="R16" t="n">
-        <v>6986802.593896162</v>
+        <v>6986801.519868135</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2378,7 +2373,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Gran, tiotalet bålar</t>
+          <t>Grantorraka</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2405,10 +2400,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>73768005</v>
+        <v>73768031</v>
       </c>
       <c r="B17" t="n">
-        <v>89392</v>
+        <v>77575</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2417,25 +2412,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>637</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2445,10 +2440,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>663224.5644262858</v>
+        <v>663127.5202591131</v>
       </c>
       <c r="R17" t="n">
-        <v>6986504.530469387</v>
+        <v>6986802.593896162</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2491,6 +2486,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Gran, tiotalet bålar</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>73768017</v>
+        <v>73768005</v>
       </c>
       <c r="B18" t="n">
-        <v>85703</v>
+        <v>89392</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2533,21 +2533,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>663266.3283318669</v>
+        <v>663224.5644262858</v>
       </c>
       <c r="R18" t="n">
-        <v>6986645.10807229</v>
+        <v>6986504.530469387</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2603,11 +2603,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Grantorraka</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2634,10 +2629,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>73768011</v>
+        <v>73768017</v>
       </c>
       <c r="B19" t="n">
-        <v>77575</v>
+        <v>85703</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2646,25 +2641,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>637</v>
+        <v>510</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2674,10 +2669,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>663254.7955810836</v>
+        <v>663266.3283318669</v>
       </c>
       <c r="R19" t="n">
-        <v>6986611.276021352</v>
+        <v>6986645.10807229</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2724,7 +2719,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Tall</t>
+          <t>Grantorraka</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2751,7 +2746,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73768016</v>
+        <v>73768011</v>
       </c>
       <c r="B20" t="n">
         <v>77575</v>
@@ -2791,10 +2786,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>663269.8324105805</v>
+        <v>663254.7955810836</v>
       </c>
       <c r="R20" t="n">
-        <v>6986638.906316652</v>
+        <v>6986611.276021352</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2841,7 +2836,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Tall</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2868,10 +2863,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>73768018</v>
+        <v>73768016</v>
       </c>
       <c r="B21" t="n">
-        <v>89794</v>
+        <v>77575</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2880,25 +2875,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5321</v>
+        <v>637</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2908,10 +2903,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>663253.5638608758</v>
+        <v>663269.8324105805</v>
       </c>
       <c r="R21" t="n">
-        <v>6986663.144847293</v>
+        <v>6986638.906316652</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2958,7 +2953,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Asphögstubbe</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2985,10 +2980,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>73768034</v>
+        <v>73768018</v>
       </c>
       <c r="B22" t="n">
-        <v>77506</v>
+        <v>89794</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2997,25 +2992,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>5321</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3025,10 +3020,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>663061.7050416467</v>
+        <v>663253.5638608758</v>
       </c>
       <c r="R22" t="n">
-        <v>6986723.227198956</v>
+        <v>6986663.144847293</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3071,6 +3066,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Asphögstubbe</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3097,10 +3097,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>73768007</v>
+        <v>73768034</v>
       </c>
       <c r="B23" t="n">
-        <v>85703</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3113,21 +3113,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>663220.1707967278</v>
+        <v>663061.7050416467</v>
       </c>
       <c r="R23" t="n">
-        <v>6986555.786927907</v>
+        <v>6986723.227198956</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>88945722</v>
+        <v>73768007</v>
       </c>
       <c r="B24" t="n">
-        <v>77506</v>
+        <v>85703</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3225,21 +3225,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3249,13 +3249,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>663078.1758953494</v>
+        <v>663220.1707967278</v>
       </c>
       <c r="R24" t="n">
-        <v>6986776.891481</v>
+        <v>6986555.786927907</v>
       </c>
       <c r="S24" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2018-08-03</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2018-08-03</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3321,10 +3321,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>88945772</v>
+        <v>88945722</v>
       </c>
       <c r="B25" t="n">
-        <v>89673</v>
+        <v>77506</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3337,21 +3337,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>663487.1727792481</v>
+        <v>663078.1758953494</v>
       </c>
       <c r="R25" t="n">
-        <v>6986116.79288762</v>
+        <v>6986776.891481</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3401,17 +3401,12 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3438,7 +3433,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>88945716</v>
+        <v>88945714</v>
       </c>
       <c r="B26" t="n">
         <v>89356</v>
@@ -3478,10 +3473,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>662962.9202128272</v>
+        <v>663115.9861765187</v>
       </c>
       <c r="R26" t="n">
-        <v>6986637.199467905</v>
+        <v>6986796.094530059</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3550,10 +3545,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>88945775</v>
+        <v>88945719</v>
       </c>
       <c r="B27" t="n">
-        <v>90647</v>
+        <v>90676</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3566,21 +3561,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4362</v>
+        <v>5966</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3590,10 +3585,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>663570.0024933092</v>
+        <v>663110.0941239404</v>
       </c>
       <c r="R27" t="n">
-        <v>6986257.175273836</v>
+        <v>6986786.233732361</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3620,7 +3615,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3630,17 +3625,12 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>Hällmarkstallskog</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3667,10 +3657,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>88945714</v>
+        <v>91960428</v>
       </c>
       <c r="B28" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3679,41 +3669,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Ringråberget, Ång</t>
+          <t>Torrmyran, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>663115.9861765187</v>
+        <v>663340.0935394474</v>
       </c>
       <c r="R28" t="n">
-        <v>6986796.094530059</v>
+        <v>6986302.129644917</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3737,7 +3727,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3747,7 +3737,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3767,22 +3757,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>88945728</v>
+        <v>91961328</v>
       </c>
       <c r="B29" t="n">
-        <v>73693</v>
+        <v>89410</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3795,37 +3785,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6440</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Ringråberget, Ång</t>
+          <t>Torrmyran, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>663650.0383477315</v>
+        <v>663271.0240832372</v>
       </c>
       <c r="R29" t="n">
-        <v>6986198.779288652</v>
+        <v>6986505.94821144</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3849,7 +3839,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3859,17 +3849,12 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Gammal gran</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3884,22 +3869,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>88945743</v>
+        <v>91961017</v>
       </c>
       <c r="B30" t="n">
-        <v>89356</v>
+        <v>77575</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3908,41 +3893,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5447</v>
+        <v>637</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Ringråberget, Ång</t>
+          <t>Torrmyran, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>663487.9038239231</v>
+        <v>663284.9639510504</v>
       </c>
       <c r="R30" t="n">
-        <v>6986093.137921776</v>
+        <v>6986610.055298475</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3966,7 +3951,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3976,7 +3961,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3996,19 +3981,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>88945820</v>
+        <v>91961470</v>
       </c>
       <c r="B31" t="n">
         <v>77506</v>
@@ -4044,17 +4029,17 @@
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Ringråberget, Ång</t>
+          <t>Torrmyran, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>663549.0905279617</v>
+        <v>663279.8903218758</v>
       </c>
       <c r="R31" t="n">
-        <v>6986264.781315181</v>
+        <v>6986611.167519386</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4078,7 +4063,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4088,7 +4073,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4108,22 +4093,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>88945753</v>
+        <v>88945783</v>
       </c>
       <c r="B32" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4136,21 +4121,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4160,10 +4145,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>663524.8412684384</v>
+        <v>663667.1031727658</v>
       </c>
       <c r="R32" t="n">
-        <v>6986048.063841974</v>
+        <v>6986204.192713754</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4232,10 +4217,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>88945833</v>
+        <v>88945825</v>
       </c>
       <c r="B33" t="n">
-        <v>78474</v>
+        <v>77506</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4244,20 +4229,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6441</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Slanklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Collema flaccidum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4272,10 +4257,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>663451.8973136988</v>
+        <v>663662.1429290097</v>
       </c>
       <c r="R33" t="n">
-        <v>6986165.138904434</v>
+        <v>6986203.032274738</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4302,7 +4287,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4312,7 +4297,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4320,18 +4305,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4350,10 +4329,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>88945783</v>
+        <v>88945816</v>
       </c>
       <c r="B34" t="n">
-        <v>78569</v>
+        <v>89410</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4366,21 +4345,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4390,10 +4369,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>663667.1031727658</v>
+        <v>663612.0778464067</v>
       </c>
       <c r="R34" t="n">
-        <v>6986204.192713754</v>
+        <v>6986236.964621663</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4420,7 +4399,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4430,12 +4409,17 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>Grantorraka</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4462,10 +4446,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88945804</v>
+        <v>88945826</v>
       </c>
       <c r="B35" t="n">
-        <v>78527</v>
+        <v>81236</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4474,25 +4458,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>229497</v>
+        <v>1312</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4502,10 +4486,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>663558.2171272917</v>
+        <v>663642.9822046569</v>
       </c>
       <c r="R35" t="n">
-        <v>6986092.111719036</v>
+        <v>6986212.0926914</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4548,6 +4532,11 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Gran &gt;150 år</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4574,10 +4563,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>88945760</v>
+        <v>88945772</v>
       </c>
       <c r="B36" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4590,21 +4579,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4614,10 +4603,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>663471.9666049758</v>
+        <v>663487.1727792481</v>
       </c>
       <c r="R36" t="n">
-        <v>6986356.125831163</v>
+        <v>6986116.79288762</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4644,7 +4633,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4654,12 +4643,17 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4686,10 +4680,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>88945825</v>
+        <v>88945775</v>
       </c>
       <c r="B37" t="n">
-        <v>77506</v>
+        <v>90647</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4702,21 +4696,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4726,10 +4720,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>663662.1429290097</v>
+        <v>663570.0024933092</v>
       </c>
       <c r="R37" t="n">
-        <v>6986203.032274738</v>
+        <v>6986257.175273836</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4772,6 +4766,11 @@
       <c r="AB37" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Hällmarkstallskog</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4798,10 +4797,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>88945786</v>
+        <v>88945728</v>
       </c>
       <c r="B38" t="n">
-        <v>78569</v>
+        <v>73693</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4814,21 +4813,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6458</v>
+        <v>6440</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4838,10 +4837,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>663527.0891148702</v>
+        <v>663650.0383477315</v>
       </c>
       <c r="R38" t="n">
-        <v>6986085.081484807</v>
+        <v>6986198.779288652</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4884,6 +4883,11 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Gammal gran</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4910,10 +4914,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>88945733</v>
+        <v>88945743</v>
       </c>
       <c r="B39" t="n">
-        <v>88969</v>
+        <v>89356</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4922,25 +4926,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>937</v>
+        <v>5447</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4950,10 +4954,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>663536.0770173665</v>
+        <v>663487.9038239231</v>
       </c>
       <c r="R39" t="n">
-        <v>6986087.810783382</v>
+        <v>6986093.137921776</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4996,11 +5000,6 @@
       <c r="AB39" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>Asplåga i bergbrant</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5027,10 +5026,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>88945773</v>
+        <v>88945820</v>
       </c>
       <c r="B40" t="n">
-        <v>77575</v>
+        <v>77506</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5039,25 +5038,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>637</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5067,10 +5066,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>663558.8229436353</v>
+        <v>663549.0905279617</v>
       </c>
       <c r="R40" t="n">
-        <v>6986307.183835064</v>
+        <v>6986264.781315181</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5139,10 +5138,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>88945769</v>
+        <v>88945753</v>
       </c>
       <c r="B41" t="n">
-        <v>78503</v>
+        <v>89392</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5151,25 +5150,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5179,10 +5178,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>663529.2277148141</v>
+        <v>663524.8412684384</v>
       </c>
       <c r="R41" t="n">
-        <v>6986087.922523198</v>
+        <v>6986048.063841974</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5251,10 +5250,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>88945785</v>
+        <v>88945833</v>
       </c>
       <c r="B42" t="n">
-        <v>78569</v>
+        <v>78474</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5263,25 +5262,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>6441</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Slanklav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Collema flaccidum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5291,10 +5290,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>663511.932772138</v>
+        <v>663451.8973136988</v>
       </c>
       <c r="R42" t="n">
-        <v>6986096.166508654</v>
+        <v>6986165.138904434</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5321,7 +5320,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5331,7 +5330,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5339,12 +5338,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5363,10 +5368,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>88945812</v>
+        <v>88945804</v>
       </c>
       <c r="B43" t="n">
-        <v>78614</v>
+        <v>78527</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5375,25 +5380,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>229504</v>
+        <v>229497</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grynig filtlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Peltigera collina</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Schrad.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5403,10 +5408,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>663545.7938268287</v>
+        <v>663558.2171272917</v>
       </c>
       <c r="R43" t="n">
-        <v>6986085.109358697</v>
+        <v>6986092.111719036</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5449,11 +5454,6 @@
       <c r="AB43" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>Lodyta, på mossa</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5480,10 +5480,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>88945839</v>
+        <v>88945760</v>
       </c>
       <c r="B44" t="n">
-        <v>78602</v>
+        <v>89392</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5492,25 +5492,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6463</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5520,10 +5520,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>663459.1289243958</v>
+        <v>663471.9666049758</v>
       </c>
       <c r="R44" t="n">
-        <v>6986202.860795618</v>
+        <v>6986356.125831163</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5566,11 +5566,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Sälg</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5597,7 +5592,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>88945781</v>
+        <v>88945786</v>
       </c>
       <c r="B45" t="n">
         <v>78569</v>
@@ -5637,10 +5632,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>663451.8973136988</v>
+        <v>663527.0891148702</v>
       </c>
       <c r="R45" t="n">
-        <v>6986165.138904434</v>
+        <v>6986085.081484807</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5667,7 +5662,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5677,17 +5672,12 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Asp</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5714,10 +5704,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>88945834</v>
+        <v>88945733</v>
       </c>
       <c r="B46" t="n">
-        <v>78479</v>
+        <v>88969</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5726,25 +5716,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>392</v>
+        <v>937</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5754,10 +5744,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>663569.2106269691</v>
+        <v>663536.0770173665</v>
       </c>
       <c r="R46" t="n">
-        <v>6986073.072391726</v>
+        <v>6986087.810783382</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5802,13 +5792,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Asplåga i bergbrant</t>
+        </is>
+      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="b">
         <v>0</v>
       </c>
-      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -5827,10 +5821,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>88945765</v>
+        <v>88945773</v>
       </c>
       <c r="B47" t="n">
-        <v>89403</v>
+        <v>77575</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5839,25 +5833,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1205</v>
+        <v>637</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5867,10 +5861,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>663542.1974058454</v>
+        <v>663558.8229436353</v>
       </c>
       <c r="R47" t="n">
-        <v>6986093.129800553</v>
+        <v>6986307.183835064</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5939,10 +5933,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>88945809</v>
+        <v>88945769</v>
       </c>
       <c r="B48" t="n">
-        <v>89406</v>
+        <v>78503</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5951,25 +5945,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>1204</v>
+        <v>6456</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5979,10 +5973,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>663528.9311044719</v>
+        <v>663529.2277148141</v>
       </c>
       <c r="R48" t="n">
-        <v>6986093.830580582</v>
+        <v>6986087.922523198</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -6025,11 +6019,6 @@
       <c r="AB48" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6056,10 +6045,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>88945806</v>
+        <v>88945785</v>
       </c>
       <c r="B49" t="n">
-        <v>78527</v>
+        <v>78569</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6068,25 +6057,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6096,10 +6085,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>663608.8714583291</v>
+        <v>663511.932772138</v>
       </c>
       <c r="R49" t="n">
-        <v>6986082.8096997</v>
+        <v>6986096.166508654</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6142,11 +6131,6 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>Sälg</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6173,10 +6157,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>88945741</v>
+        <v>88945812</v>
       </c>
       <c r="B50" t="n">
-        <v>89356</v>
+        <v>78614</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6185,25 +6169,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5447</v>
+        <v>229504</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Grynig filtlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Peltigera collina</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Schrad.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6213,10 +6197,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>663520.1509439232</v>
+        <v>663545.7938268287</v>
       </c>
       <c r="R50" t="n">
-        <v>6986068.786707269</v>
+        <v>6986085.109358697</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6259,6 +6243,11 @@
       <c r="AB50" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Lodyta, på mossa</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6285,10 +6274,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>88945762</v>
+        <v>88945839</v>
       </c>
       <c r="B51" t="n">
-        <v>56395</v>
+        <v>78602</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6297,25 +6286,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6463</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6325,10 +6314,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>663561.8886069735</v>
+        <v>663459.1289243958</v>
       </c>
       <c r="R51" t="n">
-        <v>6986037.166594671</v>
+        <v>6986202.860795618</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6355,7 +6344,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6365,7 +6354,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6375,7 +6364,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Födosök</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6402,10 +6391,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>88945746</v>
+        <v>88945781</v>
       </c>
       <c r="B52" t="n">
-        <v>89356</v>
+        <v>78569</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6414,25 +6403,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6442,10 +6431,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>663473.8163362904</v>
+        <v>663451.8973136988</v>
       </c>
       <c r="R52" t="n">
-        <v>6986301.093785391</v>
+        <v>6986165.138904434</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6488,6 +6477,11 @@
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6514,10 +6508,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>88945778</v>
+        <v>88945834</v>
       </c>
       <c r="B53" t="n">
-        <v>77532</v>
+        <v>78479</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6526,25 +6520,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6434</v>
+        <v>392</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6554,10 +6548,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>663562.107808431</v>
+        <v>663569.2106269691</v>
       </c>
       <c r="R53" t="n">
-        <v>6986250.856149387</v>
+        <v>6986073.072391726</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6602,17 +6596,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>Tall</t>
-        </is>
-      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6631,10 +6621,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>88945732</v>
+        <v>88945765</v>
       </c>
       <c r="B54" t="n">
-        <v>88969</v>
+        <v>89403</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6643,25 +6633,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>937</v>
+        <v>1205</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6671,10 +6661,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>663474.042374326</v>
+        <v>663542.1974058454</v>
       </c>
       <c r="R54" t="n">
-        <v>6986123.879183378</v>
+        <v>6986093.129800553</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6717,11 +6707,6 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>Asplåga i bergbrant</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6748,10 +6733,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>88945816</v>
+        <v>88945809</v>
       </c>
       <c r="B55" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6764,21 +6749,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6788,10 +6773,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>663612.0778464067</v>
+        <v>663528.9311044719</v>
       </c>
       <c r="R55" t="n">
-        <v>6986236.964621663</v>
+        <v>6986093.830580582</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6818,7 +6803,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6828,7 +6813,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6838,7 +6823,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Grantorraka</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6865,10 +6850,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>88945745</v>
+        <v>88945806</v>
       </c>
       <c r="B56" t="n">
-        <v>89356</v>
+        <v>78527</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6881,21 +6866,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5447</v>
+        <v>229497</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6905,10 +6890,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>663549.9581791768</v>
+        <v>663608.8714583291</v>
       </c>
       <c r="R56" t="n">
-        <v>6986083.951613118</v>
+        <v>6986082.8096997</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6951,6 +6936,11 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6977,10 +6967,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>88945790</v>
+        <v>88945741</v>
       </c>
       <c r="B57" t="n">
-        <v>78569</v>
+        <v>89356</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6989,25 +6979,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7017,10 +7007,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>663577.9273751882</v>
+        <v>663520.1509439232</v>
       </c>
       <c r="R57" t="n">
-        <v>6986063.030974061</v>
+        <v>6986068.786707269</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -7089,10 +7079,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>88945840</v>
+        <v>88945762</v>
       </c>
       <c r="B58" t="n">
-        <v>78479</v>
+        <v>56395</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7101,25 +7091,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>392</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7129,10 +7119,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>663630.8745556101</v>
+        <v>663561.8886069735</v>
       </c>
       <c r="R58" t="n">
-        <v>6986089.837937994</v>
+        <v>6986037.166594671</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7179,7 +7169,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Asp i bergbrant</t>
+          <t>Födosök</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7188,7 +7178,6 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
-      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7207,7 +7196,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>88945748</v>
+        <v>88945746</v>
       </c>
       <c r="B59" t="n">
         <v>89356</v>
@@ -7247,10 +7236,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>663455.830353489</v>
+        <v>663473.8163362904</v>
       </c>
       <c r="R59" t="n">
-        <v>6986195.861329648</v>
+        <v>6986301.093785391</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7319,10 +7308,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>88945770</v>
+        <v>88945778</v>
       </c>
       <c r="B60" t="n">
-        <v>78503</v>
+        <v>77532</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7335,21 +7324,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6456</v>
+        <v>6434</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7359,10 +7348,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>663536.0770173665</v>
+        <v>663562.107808431</v>
       </c>
       <c r="R60" t="n">
-        <v>6986087.810783382</v>
+        <v>6986250.856149387</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7405,6 +7394,11 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Tall</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7431,10 +7425,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>88945789</v>
+        <v>88945732</v>
       </c>
       <c r="B61" t="n">
-        <v>78569</v>
+        <v>88969</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7447,21 +7441,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6458</v>
+        <v>937</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7471,10 +7465,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>663598.9733894034</v>
+        <v>663474.042374326</v>
       </c>
       <c r="R61" t="n">
-        <v>6986080.034478207</v>
+        <v>6986123.879183378</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7521,7 +7515,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Asplåga i bergbrant</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7548,10 +7542,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>88945792</v>
+        <v>88945745</v>
       </c>
       <c r="B62" t="n">
-        <v>78569</v>
+        <v>89356</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7560,25 +7554,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7588,10 +7582,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>663458.1068173512</v>
+        <v>663549.9581791768</v>
       </c>
       <c r="R62" t="n">
-        <v>6986186.86364508</v>
+        <v>6986083.951613118</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7618,7 +7612,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7628,7 +7622,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7660,10 +7654,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>88945823</v>
+        <v>88945790</v>
       </c>
       <c r="B63" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7676,21 +7670,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7700,10 +7694,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>663625.1850717958</v>
+        <v>663577.9273751882</v>
       </c>
       <c r="R63" t="n">
-        <v>6986094.108256493</v>
+        <v>6986063.030974061</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7772,10 +7766,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>88945740</v>
+        <v>88945840</v>
       </c>
       <c r="B64" t="n">
-        <v>89356</v>
+        <v>78479</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7784,25 +7778,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5447</v>
+        <v>392</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7812,10 +7806,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>663518.8108349617</v>
+        <v>663630.8745556101</v>
       </c>
       <c r="R64" t="n">
-        <v>6986050.039191678</v>
+        <v>6986089.837937994</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7860,12 +7854,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>Asp i bergbrant</t>
+        </is>
+      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
       <c r="AE64" t="b">
         <v>0</v>
       </c>
+      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>88945737</v>
+        <v>88945748</v>
       </c>
       <c r="B65" t="n">
         <v>89356</v>
@@ -7924,10 +7924,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>663628.9385046106</v>
+        <v>663455.830353489</v>
       </c>
       <c r="R65" t="n">
-        <v>6986101.130989189</v>
+        <v>6986195.861329648</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7996,10 +7996,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>88945793</v>
+        <v>88945770</v>
       </c>
       <c r="B66" t="n">
-        <v>78569</v>
+        <v>78503</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8008,25 +8008,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>6456</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>663459.1289243958</v>
+        <v>663536.0770173665</v>
       </c>
       <c r="R66" t="n">
-        <v>6986202.860795618</v>
+        <v>6986087.810783382</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -8108,10 +8108,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>88945836</v>
+        <v>88945789</v>
       </c>
       <c r="B67" t="n">
-        <v>78602</v>
+        <v>78569</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8120,25 +8120,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6463</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8148,10 +8148,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>663512.0012135395</v>
+        <v>663598.9733894034</v>
       </c>
       <c r="R67" t="n">
-        <v>6986094.803112812</v>
+        <v>6986080.034478207</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8194,6 +8194,11 @@
       <c r="AB67" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8220,10 +8225,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>88945807</v>
+        <v>88945792</v>
       </c>
       <c r="B68" t="n">
-        <v>90138</v>
+        <v>78569</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8236,21 +8241,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>366</v>
+        <v>6458</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8260,10 +8265,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>663510.9108561114</v>
+        <v>663458.1068173512</v>
       </c>
       <c r="R68" t="n">
-        <v>6986080.168806351</v>
+        <v>6986186.86364508</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8290,7 +8295,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8300,17 +8305,12 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>Asplåga</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8337,10 +8337,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>88945813</v>
+        <v>88945823</v>
       </c>
       <c r="B69" t="n">
-        <v>78614</v>
+        <v>77506</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8353,21 +8353,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>229504</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Grynig filtlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Peltigera collina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Schrad.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8377,10 +8377,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>663589.9398573885</v>
+        <v>663625.1850717958</v>
       </c>
       <c r="R69" t="n">
-        <v>6986078.213933925</v>
+        <v>6986094.108256493</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8423,11 +8423,6 @@
       <c r="AB69" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>Sälg</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8454,10 +8449,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>88945837</v>
+        <v>88945740</v>
       </c>
       <c r="B70" t="n">
-        <v>78602</v>
+        <v>89356</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8470,21 +8465,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6463</v>
+        <v>5447</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8494,10 +8489,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>663530.1835455485</v>
+        <v>663518.8108349617</v>
       </c>
       <c r="R70" t="n">
-        <v>6986087.059286397</v>
+        <v>6986050.039191678</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8566,10 +8561,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>88945787</v>
+        <v>88945737</v>
       </c>
       <c r="B71" t="n">
-        <v>78569</v>
+        <v>89356</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8578,25 +8573,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8606,10 +8601,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>663534.0969028366</v>
+        <v>663628.9385046106</v>
       </c>
       <c r="R71" t="n">
-        <v>6986090.900651485</v>
+        <v>6986101.130989189</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8678,10 +8673,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>88945827</v>
+        <v>88945793</v>
       </c>
       <c r="B72" t="n">
-        <v>93132</v>
+        <v>78569</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8690,25 +8685,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>2671</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8718,10 +8713,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>663522.0349784753</v>
+        <v>663459.1289243958</v>
       </c>
       <c r="R72" t="n">
-        <v>6986103.963407288</v>
+        <v>6986202.860795618</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8748,7 +8743,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -8758,17 +8753,12 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>Lodyta</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8795,10 +8785,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>88945712</v>
+        <v>88945836</v>
       </c>
       <c r="B73" t="n">
-        <v>78072</v>
+        <v>78602</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8807,25 +8797,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>229821</v>
+        <v>6463</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8835,10 +8825,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>663455.830353489</v>
+        <v>663512.0012135395</v>
       </c>
       <c r="R73" t="n">
-        <v>6986195.861329648</v>
+        <v>6986094.803112812</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8865,7 +8855,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8875,17 +8865,12 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>Tallhögstubbe</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8912,10 +8897,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>88945796</v>
+        <v>88945807</v>
       </c>
       <c r="B74" t="n">
-        <v>78603</v>
+        <v>90138</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8924,25 +8909,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6464</v>
+        <v>366</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8952,10 +8937,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>663521.1343742125</v>
+        <v>663510.9108561114</v>
       </c>
       <c r="R74" t="n">
-        <v>6986031.019867823</v>
+        <v>6986080.168806351</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8998,6 +8983,11 @@
       <c r="AB74" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>Asplåga</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9024,10 +9014,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>88945817</v>
+        <v>88945813</v>
       </c>
       <c r="B75" t="n">
-        <v>77506</v>
+        <v>78614</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9040,21 +9030,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6425</v>
+        <v>229504</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Grynig filtlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Peltigera collina</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Schrad.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9064,10 +9054,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>663459.1564624595</v>
+        <v>663589.9398573885</v>
       </c>
       <c r="R75" t="n">
-        <v>6986356.849610358</v>
+        <v>6986078.213933925</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -9110,6 +9100,11 @@
       <c r="AB75" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9136,10 +9131,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>88945822</v>
+        <v>88945837</v>
       </c>
       <c r="B76" t="n">
-        <v>77506</v>
+        <v>78602</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9148,20 +9143,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -9176,10 +9171,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>663616.876214038</v>
+        <v>663530.1835455485</v>
       </c>
       <c r="R76" t="n">
-        <v>6986114.193375595</v>
+        <v>6986087.059286397</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9248,10 +9243,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>88945759</v>
+        <v>88945787</v>
       </c>
       <c r="B77" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9264,21 +9259,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9288,10 +9283,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>663455.839514635</v>
+        <v>663534.0969028366</v>
       </c>
       <c r="R77" t="n">
-        <v>6986313.858960534</v>
+        <v>6986090.900651485</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9318,7 +9313,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -9328,7 +9323,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -9360,10 +9355,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>88945756</v>
+        <v>88945827</v>
       </c>
       <c r="B78" t="n">
-        <v>89392</v>
+        <v>93132</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9372,25 +9367,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1202</v>
+        <v>2671</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9400,10 +9395,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>663448.183110225</v>
+        <v>663522.0349784753</v>
       </c>
       <c r="R78" t="n">
-        <v>6986211.878972161</v>
+        <v>6986103.963407288</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9430,7 +9425,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9440,12 +9435,17 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>Lodyta</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9472,10 +9472,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>88945821</v>
+        <v>88945712</v>
       </c>
       <c r="B79" t="n">
-        <v>77506</v>
+        <v>78072</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9488,21 +9488,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9512,10 +9512,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>663572.1879546768</v>
+        <v>663455.830353489</v>
       </c>
       <c r="R79" t="n">
-        <v>6986249.995596135</v>
+        <v>6986195.861329648</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -9552,12 +9552,17 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>Tallhögstubbe</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9584,10 +9589,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>88945826</v>
+        <v>88945796</v>
       </c>
       <c r="B80" t="n">
-        <v>81236</v>
+        <v>78603</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9596,25 +9601,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1312</v>
+        <v>6464</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9624,10 +9629,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>663642.9822046569</v>
+        <v>663521.1343742125</v>
       </c>
       <c r="R80" t="n">
-        <v>6986212.0926914</v>
+        <v>6986031.019867823</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9670,11 +9675,6 @@
       <c r="AB80" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>Gran &gt;150 år</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9701,10 +9701,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>88945802</v>
+        <v>88945817</v>
       </c>
       <c r="B81" t="n">
-        <v>78527</v>
+        <v>77506</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9713,25 +9713,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>229497</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9741,10 +9741,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>663519.0173552729</v>
+        <v>663459.1564624595</v>
       </c>
       <c r="R81" t="n">
-        <v>6986036.836641697</v>
+        <v>6986356.849610358</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9813,10 +9813,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>88945739</v>
+        <v>88945822</v>
       </c>
       <c r="B82" t="n">
-        <v>89356</v>
+        <v>77506</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9825,25 +9825,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5447</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9853,10 +9853,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>663650.0383477315</v>
+        <v>663616.876214038</v>
       </c>
       <c r="R82" t="n">
-        <v>6986198.779288652</v>
+        <v>6986114.193375595</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9899,11 +9899,6 @@
       <c r="AB82" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>Tallåga, silverved</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9930,10 +9925,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>88945744</v>
+        <v>88945759</v>
       </c>
       <c r="B83" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9942,25 +9937,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9970,10 +9965,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>663498.8250391249</v>
+        <v>663455.839514635</v>
       </c>
       <c r="R83" t="n">
-        <v>6986102.798293929</v>
+        <v>6986313.858960534</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -10000,7 +9995,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -10010,7 +10005,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -10042,7 +10037,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>88945755</v>
+        <v>88945756</v>
       </c>
       <c r="B84" t="n">
         <v>89392</v>
@@ -10082,10 +10077,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>663551.0724662305</v>
+        <v>663448.183110225</v>
       </c>
       <c r="R84" t="n">
-        <v>6986089.019298533</v>
+        <v>6986211.878972161</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -10112,7 +10107,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
@@ -10122,17 +10117,12 @@
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>Klen granlåga</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10159,10 +10149,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>88945726</v>
+        <v>88945821</v>
       </c>
       <c r="B85" t="n">
-        <v>99398</v>
+        <v>77506</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10171,25 +10161,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>221235</v>
+        <v>6425</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10199,10 +10189,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>663519.107425896</v>
+        <v>663572.1879546768</v>
       </c>
       <c r="R85" t="n">
-        <v>6986044.131055305</v>
+        <v>6986249.995596135</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10245,11 +10235,6 @@
       <c r="AB85" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>Barrnaturskog i sluttning</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10276,7 +10261,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>88945803</v>
+        <v>88945802</v>
       </c>
       <c r="B86" t="n">
         <v>78527</v>
@@ -10316,10 +10301,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>663511.181095939</v>
+        <v>663519.0173552729</v>
       </c>
       <c r="R86" t="n">
-        <v>6986102.051705221</v>
+        <v>6986036.836641697</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10388,10 +10373,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>88945719</v>
+        <v>88945739</v>
       </c>
       <c r="B87" t="n">
-        <v>90676</v>
+        <v>89356</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10400,25 +10385,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5966</v>
+        <v>5447</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10428,10 +10413,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>663110.0941239404</v>
+        <v>663650.0383477315</v>
       </c>
       <c r="R87" t="n">
-        <v>6986786.233732361</v>
+        <v>6986198.779288652</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10458,7 +10443,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -10468,12 +10453,17 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Tallåga, silverved</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10500,10 +10490,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>88945780</v>
+        <v>88945744</v>
       </c>
       <c r="B88" t="n">
-        <v>90676</v>
+        <v>89356</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10512,25 +10502,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5966</v>
+        <v>5447</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10540,10 +10530,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>663564.9734051186</v>
+        <v>663498.8250391249</v>
       </c>
       <c r="R88" t="n">
-        <v>6986411.819316222</v>
+        <v>6986102.798293929</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10586,11 +10576,6 @@
       <c r="AB88" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>Hällmarkstallskog</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10617,10 +10602,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88945842</v>
+        <v>88945755</v>
       </c>
       <c r="B89" t="n">
-        <v>78479</v>
+        <v>89392</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10629,25 +10614,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>392</v>
+        <v>1202</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10657,10 +10642,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>663527.0891148702</v>
+        <v>663551.0724662305</v>
       </c>
       <c r="R89" t="n">
-        <v>6986085.081484807</v>
+        <v>6986089.019298533</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10707,7 +10692,7 @@
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>Asp i bergbrant</t>
+          <t>Klen granlåga</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10734,10 +10719,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>88945818</v>
+        <v>88945726</v>
       </c>
       <c r="B90" t="n">
-        <v>77506</v>
+        <v>99398</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10746,25 +10731,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>221235</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10774,10 +10759,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>663491.1259720391</v>
+        <v>663519.107425896</v>
       </c>
       <c r="R90" t="n">
-        <v>6986347.064893151</v>
+        <v>6986044.131055305</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10820,6 +10805,11 @@
       <c r="AB90" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>Barrnaturskog i sluttning</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10846,10 +10836,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>88945788</v>
+        <v>88945803</v>
       </c>
       <c r="B91" t="n">
-        <v>78569</v>
+        <v>78527</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10858,25 +10848,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10886,10 +10876,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>663548.8882472769</v>
+        <v>663511.181095939</v>
       </c>
       <c r="R91" t="n">
-        <v>6986087.087178706</v>
+        <v>6986102.051705221</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10958,10 +10948,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>88945843</v>
+        <v>88945780</v>
       </c>
       <c r="B92" t="n">
-        <v>78479</v>
+        <v>90676</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10970,25 +10960,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>392</v>
+        <v>5966</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10998,10 +10988,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>663498.8854372614</v>
+        <v>663564.9734051186</v>
       </c>
       <c r="R92" t="n">
-        <v>6986165.219206189</v>
+        <v>6986411.819316222</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11028,7 +11018,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
@@ -11038,7 +11028,7 @@
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
@@ -11048,7 +11038,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>Asp i bergbrant</t>
+          <t>Hällmarkstallskog</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11075,10 +11065,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>91960428</v>
+        <v>88945842</v>
       </c>
       <c r="B93" t="n">
-        <v>89392</v>
+        <v>78479</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11087,41 +11077,41 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1202</v>
+        <v>392</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Torrmyran, Ång</t>
+          <t>Ringråberget, Ång</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>663340.0935394474</v>
+        <v>663527.0891148702</v>
       </c>
       <c r="R93" t="n">
-        <v>6986302.129644917</v>
+        <v>6986085.081484807</v>
       </c>
       <c r="S93" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -11145,7 +11135,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
@@ -11155,12 +11145,17 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>Asp i bergbrant</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11175,22 +11170,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>91961328</v>
+        <v>88945818</v>
       </c>
       <c r="B94" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11203,37 +11198,37 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Torrmyran, Ång</t>
+          <t>Ringråberget, Ång</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>663271.0240832372</v>
+        <v>663491.1259720391</v>
       </c>
       <c r="R94" t="n">
-        <v>6986505.94821144</v>
+        <v>6986347.064893151</v>
       </c>
       <c r="S94" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11257,7 +11252,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -11267,7 +11262,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -11287,19 +11282,19 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>91961049</v>
+        <v>88945788</v>
       </c>
       <c r="B95" t="n">
         <v>78569</v>
@@ -11335,17 +11330,17 @@
       <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Djupmyran, Ång</t>
+          <t>Ringråberget, Ång</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>663468.9668533686</v>
+        <v>663548.8882472769</v>
       </c>
       <c r="R95" t="n">
-        <v>6986134.10337623</v>
+        <v>6986087.087178706</v>
       </c>
       <c r="S95" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -11369,7 +11364,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
@@ -11379,7 +11374,7 @@
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
@@ -11399,22 +11394,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>91961017</v>
+        <v>88945843</v>
       </c>
       <c r="B96" t="n">
-        <v>77575</v>
+        <v>78479</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11427,37 +11422,37 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>637</v>
+        <v>392</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Torrmyran, Ång</t>
+          <t>Ringråberget, Ång</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>663284.9639510504</v>
+        <v>663498.8854372614</v>
       </c>
       <c r="R96" t="n">
-        <v>6986610.055298475</v>
+        <v>6986165.219206189</v>
       </c>
       <c r="S96" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -11481,7 +11476,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
@@ -11491,12 +11486,17 @@
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>Asp i bergbrant</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11511,22 +11511,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>91961576</v>
+        <v>91961049</v>
       </c>
       <c r="B97" t="n">
-        <v>78479</v>
+        <v>78569</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11535,25 +11535,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>392</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11563,10 +11563,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>663566.8249890712</v>
+        <v>663468.9668533686</v>
       </c>
       <c r="R97" t="n">
-        <v>6986047.893701208</v>
+        <v>6986134.10337623</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11635,10 +11635,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>91960341</v>
+        <v>91961576</v>
       </c>
       <c r="B98" t="n">
-        <v>89356</v>
+        <v>78479</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11647,25 +11647,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5447</v>
+        <v>392</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11675,10 +11675,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>663486.901277368</v>
+        <v>663566.8249890712</v>
       </c>
       <c r="R98" t="n">
-        <v>6986104.022234968</v>
+        <v>6986047.893701208</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11747,10 +11747,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>91960429</v>
+        <v>91960341</v>
       </c>
       <c r="B99" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11759,25 +11759,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11787,10 +11787,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>663486.1952679895</v>
+        <v>663486.901277368</v>
       </c>
       <c r="R99" t="n">
-        <v>6986108.998493642</v>
+        <v>6986104.022234968</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11859,10 +11859,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>91962571</v>
+        <v>91960429</v>
       </c>
       <c r="B100" t="n">
-        <v>78503</v>
+        <v>89392</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11871,25 +11871,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6456</v>
+        <v>1202</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>663493.1368907471</v>
+        <v>663486.1952679895</v>
       </c>
       <c r="R100" t="n">
-        <v>6986097.956684866</v>
+        <v>6986108.998493642</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11971,10 +11971,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>91962489</v>
+        <v>91962571</v>
       </c>
       <c r="B101" t="n">
-        <v>89794</v>
+        <v>78503</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11987,21 +11987,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5321</v>
+        <v>6456</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12011,10 +12011,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>663485.8325190614</v>
+        <v>663493.1368907471</v>
       </c>
       <c r="R101" t="n">
-        <v>6986098.045670984</v>
+        <v>6986097.956684866</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12083,10 +12083,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>91961471</v>
+        <v>91962489</v>
       </c>
       <c r="B102" t="n">
-        <v>77506</v>
+        <v>89794</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12095,25 +12095,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>5321</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12123,10 +12123,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>663587.9530176676</v>
+        <v>663485.8325190614</v>
       </c>
       <c r="R102" t="n">
-        <v>6986272.200035869</v>
+        <v>6986098.045670984</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12195,10 +12195,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>91961048</v>
+        <v>91961471</v>
       </c>
       <c r="B103" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12211,21 +12211,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12235,10 +12235,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>663450.9612640099</v>
+        <v>663587.9530176676</v>
       </c>
       <c r="R103" t="n">
-        <v>6986192.883408062</v>
+        <v>6986272.200035869</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12307,10 +12307,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>91961470</v>
+        <v>91961048</v>
       </c>
       <c r="B104" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12323,34 +12323,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Torrmyran, Ång</t>
+          <t>Djupmyran, Ång</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>663279.8903218758</v>
+        <v>663450.9612640099</v>
       </c>
       <c r="R104" t="n">
-        <v>6986611.167519386</v>
+        <v>6986192.883408062</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>

--- a/artfynd/A 67861-2019.xlsx
+++ b/artfynd/A 67861-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88945716</v>
+        <v>73768019</v>
       </c>
       <c r="B2" t="n">
-        <v>89356</v>
+        <v>78596</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>6462</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>662962.9202128272</v>
+        <v>663251.6760043118</v>
       </c>
       <c r="R2" t="n">
-        <v>6986637.199467905</v>
+        <v>6986655.306227501</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2018-08-03</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +760,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2018-08-03</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Gammelasp</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>73768019</v>
+        <v>73768010</v>
       </c>
       <c r="B3" t="n">
-        <v>78596</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6462</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>663251.6760043118</v>
+        <v>663249.0624749532</v>
       </c>
       <c r="R3" t="n">
-        <v>6986655.306227501</v>
+        <v>6986607.3443429</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,11 +883,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Gammelasp</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>73768010</v>
+        <v>73768022</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,21 +925,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>663249.0624749532</v>
+        <v>663254.56388968</v>
       </c>
       <c r="R4" t="n">
-        <v>6986607.3443429</v>
+        <v>6986679.593937688</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73768022</v>
+        <v>73768009</v>
       </c>
       <c r="B5" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,21 +1037,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1061,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>663254.56388968</v>
+        <v>663234.3649874611</v>
       </c>
       <c r="R5" t="n">
-        <v>6986679.593937688</v>
+        <v>6986609.340824178</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1133,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73768009</v>
+        <v>73768004</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,25 +1145,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>663234.3649874611</v>
+        <v>663234.3262006815</v>
       </c>
       <c r="R6" t="n">
-        <v>6986609.340824178</v>
+        <v>6986482.697739778</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73768004</v>
+        <v>73768015</v>
       </c>
       <c r="B7" t="n">
-        <v>89356</v>
+        <v>78527</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>229497</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1285,10 +1285,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>663234.3262006815</v>
+        <v>663276.0900326757</v>
       </c>
       <c r="R7" t="n">
-        <v>6986482.697739778</v>
+        <v>6986623.276413426</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1331,6 +1331,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1357,7 +1362,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>73768015</v>
+        <v>73768020</v>
       </c>
       <c r="B8" t="n">
         <v>78527</v>
@@ -1397,10 +1402,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>663276.0900326757</v>
+        <v>663249.8781590244</v>
       </c>
       <c r="R8" t="n">
-        <v>6986623.276413426</v>
+        <v>6986663.871137016</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1447,7 +1452,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Asphögstubbe</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1474,10 +1479,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>73768020</v>
+        <v>73768008</v>
       </c>
       <c r="B9" t="n">
-        <v>78527</v>
+        <v>89356</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1490,21 +1495,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>229497</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1514,10 +1519,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>663249.8781590244</v>
+        <v>663234.3654811011</v>
       </c>
       <c r="R9" t="n">
-        <v>6986663.871137016</v>
+        <v>6986600.230138458</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1564,7 +1569,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Asphögstubbe</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1591,10 +1596,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>73768008</v>
+        <v>73768035</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>81236</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1603,25 +1608,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1631,10 +1636,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>663234.3654811011</v>
+        <v>663060.2945095638</v>
       </c>
       <c r="R10" t="n">
-        <v>6986600.230138458</v>
+        <v>6986724.067602008</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1677,11 +1682,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1708,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>73768035</v>
+        <v>73768021</v>
       </c>
       <c r="B11" t="n">
-        <v>81236</v>
+        <v>78569</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1724,21 +1724,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1312</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1748,10 +1748,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>663060.2945095638</v>
+        <v>663255.2928173461</v>
       </c>
       <c r="R11" t="n">
-        <v>6986724.067602008</v>
+        <v>6986665.053632446</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1794,6 +1794,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Gammelasp</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1820,10 +1825,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>73768021</v>
+        <v>73768012</v>
       </c>
       <c r="B12" t="n">
-        <v>78569</v>
+        <v>77575</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1832,25 +1837,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>637</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1860,10 +1865,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>663255.2928173461</v>
+        <v>663278.0018736831</v>
       </c>
       <c r="R12" t="n">
-        <v>6986665.053632446</v>
+        <v>6986612.439442657</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1910,7 +1915,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Gammelasp</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1937,10 +1942,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>73768012</v>
+        <v>73768033</v>
       </c>
       <c r="B13" t="n">
-        <v>77575</v>
+        <v>89356</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1949,25 +1954,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>637</v>
+        <v>5447</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1977,10 +1982,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>663278.0018736831</v>
+        <v>663090.8019159045</v>
       </c>
       <c r="R13" t="n">
-        <v>6986612.439442657</v>
+        <v>6986798.021662784</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2023,11 +2028,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Gran</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2054,10 +2054,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>73768033</v>
+        <v>73768014</v>
       </c>
       <c r="B14" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2066,25 +2066,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2094,10 +2094,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>663090.8019159045</v>
+        <v>663277.5917962685</v>
       </c>
       <c r="R14" t="n">
-        <v>6986798.021662784</v>
+        <v>6986620.61850487</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2140,6 +2140,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2166,10 +2171,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>73768014</v>
+        <v>73768032</v>
       </c>
       <c r="B15" t="n">
-        <v>89392</v>
+        <v>77575</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2178,25 +2183,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>637</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2206,10 +2211,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>663277.5917962685</v>
+        <v>663087.8898744193</v>
       </c>
       <c r="R15" t="n">
-        <v>6986620.61850487</v>
+        <v>6986801.519868135</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2256,7 +2261,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Grantorraka</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2283,7 +2288,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>73768032</v>
+        <v>73768031</v>
       </c>
       <c r="B16" t="n">
         <v>77575</v>
@@ -2323,10 +2328,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>663087.8898744193</v>
+        <v>663127.5202591131</v>
       </c>
       <c r="R16" t="n">
-        <v>6986801.519868135</v>
+        <v>6986802.593896162</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2373,7 +2378,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Grantorraka</t>
+          <t>Gran, tiotalet bålar</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2400,10 +2405,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>73768031</v>
+        <v>73768005</v>
       </c>
       <c r="B17" t="n">
-        <v>77575</v>
+        <v>89392</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2412,25 +2417,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>637</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2440,10 +2445,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>663127.5202591131</v>
+        <v>663224.5644262858</v>
       </c>
       <c r="R17" t="n">
-        <v>6986802.593896162</v>
+        <v>6986504.530469387</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2486,11 +2491,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Gran, tiotalet bålar</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2517,10 +2517,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>73768005</v>
+        <v>73768017</v>
       </c>
       <c r="B18" t="n">
-        <v>89392</v>
+        <v>85703</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2533,21 +2533,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>663224.5644262858</v>
+        <v>663266.3283318669</v>
       </c>
       <c r="R18" t="n">
-        <v>6986504.530469387</v>
+        <v>6986645.10807229</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2603,6 +2603,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Grantorraka</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2629,10 +2634,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>73768017</v>
+        <v>73768011</v>
       </c>
       <c r="B19" t="n">
-        <v>85703</v>
+        <v>77575</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2641,25 +2646,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>510</v>
+        <v>637</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2669,10 +2674,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>663266.3283318669</v>
+        <v>663254.7955810836</v>
       </c>
       <c r="R19" t="n">
-        <v>6986645.10807229</v>
+        <v>6986611.276021352</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2719,7 +2724,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Grantorraka</t>
+          <t>Tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2746,7 +2751,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73768011</v>
+        <v>73768016</v>
       </c>
       <c r="B20" t="n">
         <v>77575</v>
@@ -2786,10 +2791,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>663254.7955810836</v>
+        <v>663269.8324105805</v>
       </c>
       <c r="R20" t="n">
-        <v>6986611.276021352</v>
+        <v>6986638.906316652</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2836,7 +2841,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Tall</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2863,10 +2868,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>73768016</v>
+        <v>73768018</v>
       </c>
       <c r="B21" t="n">
-        <v>77575</v>
+        <v>89794</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2875,25 +2880,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>637</v>
+        <v>5321</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2903,10 +2908,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>663269.8324105805</v>
+        <v>663253.5638608758</v>
       </c>
       <c r="R21" t="n">
-        <v>6986638.906316652</v>
+        <v>6986663.144847293</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2953,7 +2958,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Asphögstubbe</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2980,10 +2985,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>73768018</v>
+        <v>73768034</v>
       </c>
       <c r="B22" t="n">
-        <v>89794</v>
+        <v>77506</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2992,25 +2997,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5321</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3020,10 +3025,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>663253.5638608758</v>
+        <v>663061.7050416467</v>
       </c>
       <c r="R22" t="n">
-        <v>6986663.144847293</v>
+        <v>6986723.227198956</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3066,11 +3071,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Asphögstubbe</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3097,10 +3097,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>73768034</v>
+        <v>73768007</v>
       </c>
       <c r="B23" t="n">
-        <v>77506</v>
+        <v>85703</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3113,21 +3113,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>663061.7050416467</v>
+        <v>663220.1707967278</v>
       </c>
       <c r="R23" t="n">
-        <v>6986723.227198956</v>
+        <v>6986555.786927907</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>73768007</v>
+        <v>88945722</v>
       </c>
       <c r="B24" t="n">
-        <v>85703</v>
+        <v>77506</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3225,21 +3225,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>510</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3249,13 +3249,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>663220.1707967278</v>
+        <v>663078.1758953494</v>
       </c>
       <c r="R24" t="n">
-        <v>6986555.786927907</v>
+        <v>6986776.891481</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2018-08-03</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2018-08-03</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
@@ -3321,10 +3321,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>88945722</v>
+        <v>88945772</v>
       </c>
       <c r="B25" t="n">
-        <v>77506</v>
+        <v>89673</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3337,21 +3337,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>658</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>663078.1758953494</v>
+        <v>663487.1727792481</v>
       </c>
       <c r="R25" t="n">
-        <v>6986776.891481</v>
+        <v>6986116.79288762</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -3401,12 +3401,17 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3433,7 +3438,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>88945714</v>
+        <v>88945716</v>
       </c>
       <c r="B26" t="n">
         <v>89356</v>
@@ -3473,10 +3478,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>663115.9861765187</v>
+        <v>662962.9202128272</v>
       </c>
       <c r="R26" t="n">
-        <v>6986796.094530059</v>
+        <v>6986637.199467905</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3545,10 +3550,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>88945719</v>
+        <v>88945775</v>
       </c>
       <c r="B27" t="n">
-        <v>90676</v>
+        <v>90647</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3561,21 +3566,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5966</v>
+        <v>4362</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3585,10 +3590,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>663110.0941239404</v>
+        <v>663570.0024933092</v>
       </c>
       <c r="R27" t="n">
-        <v>6986786.233732361</v>
+        <v>6986257.175273836</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3615,7 +3620,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
@@ -3625,12 +3630,17 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2020-10-02</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Hällmarkstallskog</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3657,10 +3667,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>91960428</v>
+        <v>88945714</v>
       </c>
       <c r="B28" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3669,41 +3679,41 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Torrmyran, Ång</t>
+          <t>Ringråberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>663340.0935394474</v>
+        <v>663115.9861765187</v>
       </c>
       <c r="R28" t="n">
-        <v>6986302.129644917</v>
+        <v>6986796.094530059</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3727,7 +3737,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3737,7 +3747,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3757,22 +3767,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>91961328</v>
+        <v>88945728</v>
       </c>
       <c r="B29" t="n">
-        <v>89410</v>
+        <v>73693</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3785,37 +3795,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>6440</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Torrmyran, Ång</t>
+          <t>Ringråberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>663271.0240832372</v>
+        <v>663650.0383477315</v>
       </c>
       <c r="R29" t="n">
-        <v>6986505.94821144</v>
+        <v>6986198.779288652</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3839,7 +3849,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3849,12 +3859,17 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Gammal gran</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3869,22 +3884,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>91961017</v>
+        <v>88945743</v>
       </c>
       <c r="B30" t="n">
-        <v>77575</v>
+        <v>89356</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3893,41 +3908,41 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>637</v>
+        <v>5447</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Torrmyran, Ång</t>
+          <t>Ringråberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>663284.9639510504</v>
+        <v>663487.9038239231</v>
       </c>
       <c r="R30" t="n">
-        <v>6986610.055298475</v>
+        <v>6986093.137921776</v>
       </c>
       <c r="S30" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3951,7 +3966,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3961,7 +3976,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3981,19 +3996,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>91961470</v>
+        <v>88945820</v>
       </c>
       <c r="B31" t="n">
         <v>77506</v>
@@ -4029,17 +4044,17 @@
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Torrmyran, Ång</t>
+          <t>Ringråberget, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>663279.8903218758</v>
+        <v>663549.0905279617</v>
       </c>
       <c r="R31" t="n">
-        <v>6986611.167519386</v>
+        <v>6986264.781315181</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4063,7 +4078,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4073,7 +4088,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4093,22 +4108,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>88945783</v>
+        <v>88945753</v>
       </c>
       <c r="B32" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4121,21 +4136,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4145,10 +4160,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>663667.1031727658</v>
+        <v>663524.8412684384</v>
       </c>
       <c r="R32" t="n">
-        <v>6986204.192713754</v>
+        <v>6986048.063841974</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4217,10 +4232,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>88945825</v>
+        <v>88945833</v>
       </c>
       <c r="B33" t="n">
-        <v>77506</v>
+        <v>78474</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4229,20 +4244,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>6441</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Slanklav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Collema flaccidum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4257,10 +4272,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>663662.1429290097</v>
+        <v>663451.8973136988</v>
       </c>
       <c r="R33" t="n">
-        <v>6986203.032274738</v>
+        <v>6986165.138904434</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4287,7 +4302,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4297,7 +4312,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4305,12 +4320,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4329,10 +4350,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>88945816</v>
+        <v>88945783</v>
       </c>
       <c r="B34" t="n">
-        <v>89410</v>
+        <v>78569</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4345,21 +4366,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4369,10 +4390,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>663612.0778464067</v>
+        <v>663667.1031727658</v>
       </c>
       <c r="R34" t="n">
-        <v>6986236.964621663</v>
+        <v>6986204.192713754</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4399,7 +4420,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4409,17 +4430,12 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>Grantorraka</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4446,10 +4462,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>88945826</v>
+        <v>88945804</v>
       </c>
       <c r="B35" t="n">
-        <v>81236</v>
+        <v>78527</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4458,25 +4474,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1312</v>
+        <v>229497</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4486,10 +4502,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>663642.9822046569</v>
+        <v>663558.2171272917</v>
       </c>
       <c r="R35" t="n">
-        <v>6986212.0926914</v>
+        <v>6986092.111719036</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4532,11 +4548,6 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>Gran &gt;150 år</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4563,10 +4574,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>88945772</v>
+        <v>88945760</v>
       </c>
       <c r="B36" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4579,21 +4590,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4603,10 +4614,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>663487.1727792481</v>
+        <v>663471.9666049758</v>
       </c>
       <c r="R36" t="n">
-        <v>6986116.79288762</v>
+        <v>6986356.125831163</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4633,7 +4644,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -4643,17 +4654,12 @@
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4680,10 +4686,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>88945775</v>
+        <v>88945825</v>
       </c>
       <c r="B37" t="n">
-        <v>90647</v>
+        <v>77506</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4696,21 +4702,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4720,10 +4726,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>663570.0024933092</v>
+        <v>663662.1429290097</v>
       </c>
       <c r="R37" t="n">
-        <v>6986257.175273836</v>
+        <v>6986203.032274738</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4766,11 +4772,6 @@
       <c r="AB37" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Hällmarkstallskog</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4797,10 +4798,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>88945728</v>
+        <v>88945786</v>
       </c>
       <c r="B38" t="n">
-        <v>73693</v>
+        <v>78569</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4813,21 +4814,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6440</v>
+        <v>6458</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4837,10 +4838,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>663650.0383477315</v>
+        <v>663527.0891148702</v>
       </c>
       <c r="R38" t="n">
-        <v>6986198.779288652</v>
+        <v>6986085.081484807</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4883,11 +4884,6 @@
       <c r="AB38" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Gammal gran</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4914,10 +4910,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>88945743</v>
+        <v>88945733</v>
       </c>
       <c r="B39" t="n">
-        <v>89356</v>
+        <v>88969</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4926,25 +4922,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5447</v>
+        <v>937</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4954,10 +4950,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>663487.9038239231</v>
+        <v>663536.0770173665</v>
       </c>
       <c r="R39" t="n">
-        <v>6986093.137921776</v>
+        <v>6986087.810783382</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -5000,6 +4996,11 @@
       <c r="AB39" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>Asplåga i bergbrant</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5026,10 +5027,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>88945820</v>
+        <v>88945773</v>
       </c>
       <c r="B40" t="n">
-        <v>77506</v>
+        <v>77575</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5038,25 +5039,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>637</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5066,10 +5067,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>663549.0905279617</v>
+        <v>663558.8229436353</v>
       </c>
       <c r="R40" t="n">
-        <v>6986264.781315181</v>
+        <v>6986307.183835064</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5138,10 +5139,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>88945753</v>
+        <v>88945769</v>
       </c>
       <c r="B41" t="n">
-        <v>89392</v>
+        <v>78503</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5150,25 +5151,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5178,10 +5179,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>663524.8412684384</v>
+        <v>663529.2277148141</v>
       </c>
       <c r="R41" t="n">
-        <v>6986048.063841974</v>
+        <v>6986087.922523198</v>
       </c>
       <c r="S41" t="n">
         <v>15</v>
@@ -5250,10 +5251,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>88945833</v>
+        <v>88945785</v>
       </c>
       <c r="B42" t="n">
-        <v>78474</v>
+        <v>78569</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5262,25 +5263,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6441</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Slanklav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Collema flaccidum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5290,10 +5291,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>663451.8973136988</v>
+        <v>663511.932772138</v>
       </c>
       <c r="R42" t="n">
-        <v>6986165.138904434</v>
+        <v>6986096.166508654</v>
       </c>
       <c r="S42" t="n">
         <v>15</v>
@@ -5320,7 +5321,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5330,7 +5331,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5338,18 +5339,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>Asp</t>
-        </is>
-      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5368,10 +5363,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>88945804</v>
+        <v>88945812</v>
       </c>
       <c r="B43" t="n">
-        <v>78527</v>
+        <v>78614</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5380,25 +5375,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>229497</v>
+        <v>229504</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Grynig filtlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Peltigera collina</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Schrad.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5408,10 +5403,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>663558.2171272917</v>
+        <v>663545.7938268287</v>
       </c>
       <c r="R43" t="n">
-        <v>6986092.111719036</v>
+        <v>6986085.109358697</v>
       </c>
       <c r="S43" t="n">
         <v>15</v>
@@ -5454,6 +5449,11 @@
       <c r="AB43" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>Lodyta, på mossa</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5480,10 +5480,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>88945760</v>
+        <v>88945839</v>
       </c>
       <c r="B44" t="n">
-        <v>89392</v>
+        <v>78602</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5492,25 +5492,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>6463</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5520,10 +5520,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>663471.9666049758</v>
+        <v>663459.1289243958</v>
       </c>
       <c r="R44" t="n">
-        <v>6986356.125831163</v>
+        <v>6986202.860795618</v>
       </c>
       <c r="S44" t="n">
         <v>15</v>
@@ -5566,6 +5566,11 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5592,7 +5597,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>88945786</v>
+        <v>88945781</v>
       </c>
       <c r="B45" t="n">
         <v>78569</v>
@@ -5632,10 +5637,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>663527.0891148702</v>
+        <v>663451.8973136988</v>
       </c>
       <c r="R45" t="n">
-        <v>6986085.081484807</v>
+        <v>6986165.138904434</v>
       </c>
       <c r="S45" t="n">
         <v>15</v>
@@ -5662,7 +5667,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -5672,12 +5677,17 @@
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5704,10 +5714,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>88945733</v>
+        <v>88945834</v>
       </c>
       <c r="B46" t="n">
-        <v>88969</v>
+        <v>78479</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5716,25 +5726,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>937</v>
+        <v>392</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5744,10 +5754,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>663536.0770173665</v>
+        <v>663569.2106269691</v>
       </c>
       <c r="R46" t="n">
-        <v>6986087.810783382</v>
+        <v>6986073.072391726</v>
       </c>
       <c r="S46" t="n">
         <v>15</v>
@@ -5792,17 +5802,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>Asplåga i bergbrant</t>
-        </is>
-      </c>
       <c r="AD46" t="b">
         <v>0</v>
       </c>
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
@@ -5821,10 +5827,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>88945773</v>
+        <v>88945765</v>
       </c>
       <c r="B47" t="n">
-        <v>77575</v>
+        <v>89403</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5833,25 +5839,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>637</v>
+        <v>1205</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5861,10 +5867,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>663558.8229436353</v>
+        <v>663542.1974058454</v>
       </c>
       <c r="R47" t="n">
-        <v>6986307.183835064</v>
+        <v>6986093.129800553</v>
       </c>
       <c r="S47" t="n">
         <v>15</v>
@@ -5933,10 +5939,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>88945769</v>
+        <v>88945809</v>
       </c>
       <c r="B48" t="n">
-        <v>78503</v>
+        <v>89406</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5945,25 +5951,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6456</v>
+        <v>1204</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5973,10 +5979,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>663529.2277148141</v>
+        <v>663528.9311044719</v>
       </c>
       <c r="R48" t="n">
-        <v>6986087.922523198</v>
+        <v>6986093.830580582</v>
       </c>
       <c r="S48" t="n">
         <v>15</v>
@@ -6019,6 +6025,11 @@
       <c r="AB48" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6045,10 +6056,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>88945785</v>
+        <v>88945806</v>
       </c>
       <c r="B49" t="n">
-        <v>78569</v>
+        <v>78527</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6057,25 +6068,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6458</v>
+        <v>229497</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6085,10 +6096,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>663511.932772138</v>
+        <v>663608.8714583291</v>
       </c>
       <c r="R49" t="n">
-        <v>6986096.166508654</v>
+        <v>6986082.8096997</v>
       </c>
       <c r="S49" t="n">
         <v>15</v>
@@ -6131,6 +6142,11 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6157,10 +6173,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>88945812</v>
+        <v>88945741</v>
       </c>
       <c r="B50" t="n">
-        <v>78614</v>
+        <v>89356</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6169,25 +6185,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>229504</v>
+        <v>5447</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Grynig filtlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Peltigera collina</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Schrad.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6197,10 +6213,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>663545.7938268287</v>
+        <v>663520.1509439232</v>
       </c>
       <c r="R50" t="n">
-        <v>6986085.109358697</v>
+        <v>6986068.786707269</v>
       </c>
       <c r="S50" t="n">
         <v>15</v>
@@ -6243,11 +6259,6 @@
       <c r="AB50" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Lodyta, på mossa</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6274,10 +6285,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>88945839</v>
+        <v>88945762</v>
       </c>
       <c r="B51" t="n">
-        <v>78602</v>
+        <v>56395</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6286,25 +6297,25 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6463</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6314,10 +6325,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>663459.1289243958</v>
+        <v>663561.8886069735</v>
       </c>
       <c r="R51" t="n">
-        <v>6986202.860795618</v>
+        <v>6986037.166594671</v>
       </c>
       <c r="S51" t="n">
         <v>15</v>
@@ -6344,7 +6355,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z51" t="inlineStr">
@@ -6354,7 +6365,7 @@
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB51" t="inlineStr">
@@ -6364,7 +6375,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Sälg</t>
+          <t>Födosök</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6391,10 +6402,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>88945781</v>
+        <v>88945746</v>
       </c>
       <c r="B52" t="n">
-        <v>78569</v>
+        <v>89356</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6403,25 +6414,25 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>5447</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -6431,10 +6442,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>663451.8973136988</v>
+        <v>663473.8163362904</v>
       </c>
       <c r="R52" t="n">
-        <v>6986165.138904434</v>
+        <v>6986301.093785391</v>
       </c>
       <c r="S52" t="n">
         <v>15</v>
@@ -6477,11 +6488,6 @@
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>Asp</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6508,10 +6514,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>88945834</v>
+        <v>88945778</v>
       </c>
       <c r="B53" t="n">
-        <v>78479</v>
+        <v>77532</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6520,25 +6526,25 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>392</v>
+        <v>6434</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Nästlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Bryoria furcellata</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6548,10 +6554,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>663569.2106269691</v>
+        <v>663562.107808431</v>
       </c>
       <c r="R53" t="n">
-        <v>6986073.072391726</v>
+        <v>6986250.856149387</v>
       </c>
       <c r="S53" t="n">
         <v>15</v>
@@ -6596,13 +6602,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>Tall</t>
+        </is>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6621,10 +6631,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>88945765</v>
+        <v>88945732</v>
       </c>
       <c r="B54" t="n">
-        <v>89403</v>
+        <v>88969</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6633,25 +6643,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1205</v>
+        <v>937</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Vit vedfingersvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lentaria epichnoa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Fr.) Corner</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6661,10 +6671,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>663542.1974058454</v>
+        <v>663474.042374326</v>
       </c>
       <c r="R54" t="n">
-        <v>6986093.129800553</v>
+        <v>6986123.879183378</v>
       </c>
       <c r="S54" t="n">
         <v>15</v>
@@ -6707,6 +6717,11 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>Asplåga i bergbrant</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6733,10 +6748,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>88945809</v>
+        <v>88945816</v>
       </c>
       <c r="B55" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6749,21 +6764,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6773,10 +6788,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>663528.9311044719</v>
+        <v>663612.0778464067</v>
       </c>
       <c r="R55" t="n">
-        <v>6986093.830580582</v>
+        <v>6986236.964621663</v>
       </c>
       <c r="S55" t="n">
         <v>15</v>
@@ -6803,7 +6818,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
@@ -6813,7 +6828,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -6823,7 +6838,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Granlåga</t>
+          <t>Grantorraka</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6850,10 +6865,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>88945806</v>
+        <v>88945745</v>
       </c>
       <c r="B56" t="n">
-        <v>78527</v>
+        <v>89356</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6866,21 +6881,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>229497</v>
+        <v>5447</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6890,10 +6905,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>663608.8714583291</v>
+        <v>663549.9581791768</v>
       </c>
       <c r="R56" t="n">
-        <v>6986082.8096997</v>
+        <v>6986083.951613118</v>
       </c>
       <c r="S56" t="n">
         <v>15</v>
@@ -6936,11 +6951,6 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Sälg</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6967,10 +6977,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>88945741</v>
+        <v>88945790</v>
       </c>
       <c r="B57" t="n">
-        <v>89356</v>
+        <v>78569</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6979,25 +6989,25 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7007,10 +7017,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>663520.1509439232</v>
+        <v>663577.9273751882</v>
       </c>
       <c r="R57" t="n">
-        <v>6986068.786707269</v>
+        <v>6986063.030974061</v>
       </c>
       <c r="S57" t="n">
         <v>15</v>
@@ -7079,10 +7089,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>88945762</v>
+        <v>88945840</v>
       </c>
       <c r="B58" t="n">
-        <v>56395</v>
+        <v>78479</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7091,25 +7101,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>392</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7119,10 +7129,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>663561.8886069735</v>
+        <v>663630.8745556101</v>
       </c>
       <c r="R58" t="n">
-        <v>6986037.166594671</v>
+        <v>6986089.837937994</v>
       </c>
       <c r="S58" t="n">
         <v>15</v>
@@ -7169,7 +7179,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Födosök</t>
+          <t>Asp i bergbrant</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7178,6 +7188,7 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
@@ -7196,7 +7207,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>88945746</v>
+        <v>88945748</v>
       </c>
       <c r="B59" t="n">
         <v>89356</v>
@@ -7236,10 +7247,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>663473.8163362904</v>
+        <v>663455.830353489</v>
       </c>
       <c r="R59" t="n">
-        <v>6986301.093785391</v>
+        <v>6986195.861329648</v>
       </c>
       <c r="S59" t="n">
         <v>15</v>
@@ -7308,10 +7319,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>88945778</v>
+        <v>88945770</v>
       </c>
       <c r="B60" t="n">
-        <v>77532</v>
+        <v>78503</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7324,21 +7335,21 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6434</v>
+        <v>6456</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Nästlav</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Bryoria furcellata</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Brodo &amp; D.Hawksw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -7348,10 +7359,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>663562.107808431</v>
+        <v>663536.0770173665</v>
       </c>
       <c r="R60" t="n">
-        <v>6986250.856149387</v>
+        <v>6986087.810783382</v>
       </c>
       <c r="S60" t="n">
         <v>15</v>
@@ -7394,11 +7405,6 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Tall</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7425,10 +7431,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>88945732</v>
+        <v>88945789</v>
       </c>
       <c r="B61" t="n">
-        <v>88969</v>
+        <v>78569</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7441,21 +7447,21 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>937</v>
+        <v>6458</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vit vedfingersvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Lentaria epichnoa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Corner</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7465,10 +7471,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>663474.042374326</v>
+        <v>663598.9733894034</v>
       </c>
       <c r="R61" t="n">
-        <v>6986123.879183378</v>
+        <v>6986080.034478207</v>
       </c>
       <c r="S61" t="n">
         <v>15</v>
@@ -7515,7 +7521,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Asplåga i bergbrant</t>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7542,10 +7548,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>88945745</v>
+        <v>88945792</v>
       </c>
       <c r="B62" t="n">
-        <v>89356</v>
+        <v>78569</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7554,25 +7560,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7582,10 +7588,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>663549.9581791768</v>
+        <v>663458.1068173512</v>
       </c>
       <c r="R62" t="n">
-        <v>6986083.951613118</v>
+        <v>6986186.86364508</v>
       </c>
       <c r="S62" t="n">
         <v>15</v>
@@ -7612,7 +7618,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
@@ -7622,7 +7628,7 @@
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB62" t="inlineStr">
@@ -7654,10 +7660,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>88945790</v>
+        <v>88945823</v>
       </c>
       <c r="B63" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7670,21 +7676,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7694,10 +7700,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>663577.9273751882</v>
+        <v>663625.1850717958</v>
       </c>
       <c r="R63" t="n">
-        <v>6986063.030974061</v>
+        <v>6986094.108256493</v>
       </c>
       <c r="S63" t="n">
         <v>15</v>
@@ -7766,10 +7772,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>88945840</v>
+        <v>88945740</v>
       </c>
       <c r="B64" t="n">
-        <v>78479</v>
+        <v>89356</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7778,25 +7784,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>392</v>
+        <v>5447</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -7806,10 +7812,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>663630.8745556101</v>
+        <v>663518.8108349617</v>
       </c>
       <c r="R64" t="n">
-        <v>6986089.837937994</v>
+        <v>6986050.039191678</v>
       </c>
       <c r="S64" t="n">
         <v>15</v>
@@ -7854,18 +7860,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>Asp i bergbrant</t>
-        </is>
-      </c>
       <c r="AD64" t="b">
         <v>0</v>
       </c>
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>88945748</v>
+        <v>88945737</v>
       </c>
       <c r="B65" t="n">
         <v>89356</v>
@@ -7924,10 +7924,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>663455.830353489</v>
+        <v>663628.9385046106</v>
       </c>
       <c r="R65" t="n">
-        <v>6986195.861329648</v>
+        <v>6986101.130989189</v>
       </c>
       <c r="S65" t="n">
         <v>15</v>
@@ -7954,7 +7954,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z65" t="inlineStr">
@@ -7964,7 +7964,7 @@
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB65" t="inlineStr">
@@ -7996,10 +7996,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>88945770</v>
+        <v>88945793</v>
       </c>
       <c r="B66" t="n">
-        <v>78503</v>
+        <v>78569</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8008,25 +8008,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6456</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8036,10 +8036,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>663536.0770173665</v>
+        <v>663459.1289243958</v>
       </c>
       <c r="R66" t="n">
-        <v>6986087.810783382</v>
+        <v>6986202.860795618</v>
       </c>
       <c r="S66" t="n">
         <v>15</v>
@@ -8066,7 +8066,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z66" t="inlineStr">
@@ -8076,7 +8076,7 @@
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB66" t="inlineStr">
@@ -8108,10 +8108,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>88945789</v>
+        <v>88945836</v>
       </c>
       <c r="B67" t="n">
-        <v>78569</v>
+        <v>78602</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8120,25 +8120,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>6463</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8148,10 +8148,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>663598.9733894034</v>
+        <v>663512.0012135395</v>
       </c>
       <c r="R67" t="n">
-        <v>6986080.034478207</v>
+        <v>6986094.803112812</v>
       </c>
       <c r="S67" t="n">
         <v>15</v>
@@ -8194,11 +8194,6 @@
       <c r="AB67" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Sälg</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8225,10 +8220,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>88945792</v>
+        <v>88945807</v>
       </c>
       <c r="B68" t="n">
-        <v>78569</v>
+        <v>90138</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8241,21 +8236,21 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6458</v>
+        <v>366</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Kandelabersvamp</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Artomyces pyxidatus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Pers.) Jülich</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
@@ -8265,10 +8260,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>663458.1068173512</v>
+        <v>663510.9108561114</v>
       </c>
       <c r="R68" t="n">
-        <v>6986186.86364508</v>
+        <v>6986080.168806351</v>
       </c>
       <c r="S68" t="n">
         <v>15</v>
@@ -8295,7 +8290,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z68" t="inlineStr">
@@ -8305,12 +8300,17 @@
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB68" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>Asplåga</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8337,10 +8337,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>88945823</v>
+        <v>88945813</v>
       </c>
       <c r="B69" t="n">
-        <v>77506</v>
+        <v>78614</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8353,21 +8353,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>229504</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Grynig filtlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Peltigera collina</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Schrad.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8377,10 +8377,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>663625.1850717958</v>
+        <v>663589.9398573885</v>
       </c>
       <c r="R69" t="n">
-        <v>6986094.108256493</v>
+        <v>6986078.213933925</v>
       </c>
       <c r="S69" t="n">
         <v>15</v>
@@ -8423,6 +8423,11 @@
       <c r="AB69" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>Sälg</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8449,10 +8454,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>88945740</v>
+        <v>88945837</v>
       </c>
       <c r="B70" t="n">
-        <v>89356</v>
+        <v>78602</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8465,21 +8470,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5447</v>
+        <v>6463</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -8489,10 +8494,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>663518.8108349617</v>
+        <v>663530.1835455485</v>
       </c>
       <c r="R70" t="n">
-        <v>6986050.039191678</v>
+        <v>6986087.059286397</v>
       </c>
       <c r="S70" t="n">
         <v>15</v>
@@ -8561,10 +8566,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>88945737</v>
+        <v>88945787</v>
       </c>
       <c r="B71" t="n">
-        <v>89356</v>
+        <v>78569</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8573,25 +8578,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5447</v>
+        <v>6458</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8601,10 +8606,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>663628.9385046106</v>
+        <v>663534.0969028366</v>
       </c>
       <c r="R71" t="n">
-        <v>6986101.130989189</v>
+        <v>6986090.900651485</v>
       </c>
       <c r="S71" t="n">
         <v>15</v>
@@ -8673,10 +8678,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>88945793</v>
+        <v>88945827</v>
       </c>
       <c r="B72" t="n">
-        <v>78569</v>
+        <v>93132</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8685,25 +8690,25 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>2671</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Fällmossa</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Antitrichia curtipendula</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8713,10 +8718,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>663459.1289243958</v>
+        <v>663522.0349784753</v>
       </c>
       <c r="R72" t="n">
-        <v>6986202.860795618</v>
+        <v>6986103.963407288</v>
       </c>
       <c r="S72" t="n">
         <v>15</v>
@@ -8743,7 +8748,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z72" t="inlineStr">
@@ -8753,12 +8758,17 @@
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB72" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>Lodyta</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8785,10 +8795,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>88945836</v>
+        <v>88945712</v>
       </c>
       <c r="B73" t="n">
-        <v>78602</v>
+        <v>78072</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8797,25 +8807,25 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6463</v>
+        <v>229821</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -8825,10 +8835,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>663512.0012135395</v>
+        <v>663455.830353489</v>
       </c>
       <c r="R73" t="n">
-        <v>6986094.803112812</v>
+        <v>6986195.861329648</v>
       </c>
       <c r="S73" t="n">
         <v>15</v>
@@ -8855,7 +8865,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -8865,12 +8875,17 @@
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>Tallhögstubbe</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8897,10 +8912,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>88945807</v>
+        <v>88945796</v>
       </c>
       <c r="B74" t="n">
-        <v>90138</v>
+        <v>78603</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8909,25 +8924,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>366</v>
+        <v>6464</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Kandelabersvamp</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Artomyces pyxidatus</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Pers.) Jülich</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8937,10 +8952,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>663510.9108561114</v>
+        <v>663521.1343742125</v>
       </c>
       <c r="R74" t="n">
-        <v>6986080.168806351</v>
+        <v>6986031.019867823</v>
       </c>
       <c r="S74" t="n">
         <v>15</v>
@@ -8983,11 +8998,6 @@
       <c r="AB74" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>Asplåga</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9014,10 +9024,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>88945813</v>
+        <v>88945817</v>
       </c>
       <c r="B75" t="n">
-        <v>78614</v>
+        <v>77506</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9030,21 +9040,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>229504</v>
+        <v>6425</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Grynig filtlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Peltigera collina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Ach.) Schrad.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9054,10 +9064,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>663589.9398573885</v>
+        <v>663459.1564624595</v>
       </c>
       <c r="R75" t="n">
-        <v>6986078.213933925</v>
+        <v>6986356.849610358</v>
       </c>
       <c r="S75" t="n">
         <v>15</v>
@@ -9100,11 +9110,6 @@
       <c r="AB75" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>Sälg</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9131,10 +9136,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>88945837</v>
+        <v>88945822</v>
       </c>
       <c r="B76" t="n">
-        <v>78602</v>
+        <v>77506</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9143,20 +9148,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -9171,10 +9176,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>663530.1835455485</v>
+        <v>663616.876214038</v>
       </c>
       <c r="R76" t="n">
-        <v>6986087.059286397</v>
+        <v>6986114.193375595</v>
       </c>
       <c r="S76" t="n">
         <v>15</v>
@@ -9243,10 +9248,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>88945787</v>
+        <v>88945759</v>
       </c>
       <c r="B77" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9259,21 +9264,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9283,10 +9288,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>663534.0969028366</v>
+        <v>663455.839514635</v>
       </c>
       <c r="R77" t="n">
-        <v>6986090.900651485</v>
+        <v>6986313.858960534</v>
       </c>
       <c r="S77" t="n">
         <v>15</v>
@@ -9313,7 +9318,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z77" t="inlineStr">
@@ -9323,7 +9328,7 @@
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB77" t="inlineStr">
@@ -9355,10 +9360,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>88945827</v>
+        <v>88945756</v>
       </c>
       <c r="B78" t="n">
-        <v>93132</v>
+        <v>89392</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9367,25 +9372,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2671</v>
+        <v>1202</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Fällmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Antitrichia curtipendula</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9395,10 +9400,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>663522.0349784753</v>
+        <v>663448.183110225</v>
       </c>
       <c r="R78" t="n">
-        <v>6986103.963407288</v>
+        <v>6986211.878972161</v>
       </c>
       <c r="S78" t="n">
         <v>15</v>
@@ -9425,7 +9430,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z78" t="inlineStr">
@@ -9435,17 +9440,12 @@
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB78" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>Lodyta</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9472,10 +9472,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>88945712</v>
+        <v>88945821</v>
       </c>
       <c r="B79" t="n">
-        <v>78072</v>
+        <v>77506</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9488,21 +9488,21 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -9512,10 +9512,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>663455.830353489</v>
+        <v>663572.1879546768</v>
       </c>
       <c r="R79" t="n">
-        <v>6986195.861329648</v>
+        <v>6986249.995596135</v>
       </c>
       <c r="S79" t="n">
         <v>15</v>
@@ -9542,7 +9542,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z79" t="inlineStr">
@@ -9552,17 +9552,12 @@
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB79" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>Tallhögstubbe</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9589,10 +9584,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>88945796</v>
+        <v>88945826</v>
       </c>
       <c r="B80" t="n">
-        <v>78603</v>
+        <v>81236</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9601,25 +9596,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6464</v>
+        <v>1312</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9629,10 +9624,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>663521.1343742125</v>
+        <v>663642.9822046569</v>
       </c>
       <c r="R80" t="n">
-        <v>6986031.019867823</v>
+        <v>6986212.0926914</v>
       </c>
       <c r="S80" t="n">
         <v>15</v>
@@ -9675,6 +9670,11 @@
       <c r="AB80" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>Gran &gt;150 år</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9701,10 +9701,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>88945817</v>
+        <v>88945802</v>
       </c>
       <c r="B81" t="n">
-        <v>77506</v>
+        <v>78527</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9713,25 +9713,25 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>229497</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
@@ -9741,10 +9741,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>663459.1564624595</v>
+        <v>663519.0173552729</v>
       </c>
       <c r="R81" t="n">
-        <v>6986356.849610358</v>
+        <v>6986036.836641697</v>
       </c>
       <c r="S81" t="n">
         <v>15</v>
@@ -9813,10 +9813,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>88945822</v>
+        <v>88945739</v>
       </c>
       <c r="B82" t="n">
-        <v>77506</v>
+        <v>89356</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9825,25 +9825,25 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>5447</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -9853,10 +9853,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>663616.876214038</v>
+        <v>663650.0383477315</v>
       </c>
       <c r="R82" t="n">
-        <v>6986114.193375595</v>
+        <v>6986198.779288652</v>
       </c>
       <c r="S82" t="n">
         <v>15</v>
@@ -9899,6 +9899,11 @@
       <c r="AB82" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>Tallåga, silverved</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9925,10 +9930,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>88945759</v>
+        <v>88945744</v>
       </c>
       <c r="B83" t="n">
-        <v>89392</v>
+        <v>89356</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9937,25 +9942,25 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9965,10 +9970,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>663455.839514635</v>
+        <v>663498.8250391249</v>
       </c>
       <c r="R83" t="n">
-        <v>6986313.858960534</v>
+        <v>6986102.798293929</v>
       </c>
       <c r="S83" t="n">
         <v>15</v>
@@ -9995,7 +10000,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
@@ -10005,7 +10010,7 @@
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB83" t="inlineStr">
@@ -10037,7 +10042,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>88945756</v>
+        <v>88945755</v>
       </c>
       <c r="B84" t="n">
         <v>89392</v>
@@ -10077,10 +10082,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>663448.183110225</v>
+        <v>663551.0724662305</v>
       </c>
       <c r="R84" t="n">
-        <v>6986211.878972161</v>
+        <v>6986089.019298533</v>
       </c>
       <c r="S84" t="n">
         <v>15</v>
@@ -10107,7 +10112,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
@@ -10117,12 +10122,17 @@
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-10-04</t>
         </is>
       </c>
       <c r="AB84" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>Klen granlåga</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10149,10 +10159,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>88945821</v>
+        <v>88945726</v>
       </c>
       <c r="B85" t="n">
-        <v>77506</v>
+        <v>99398</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10161,25 +10171,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6425</v>
+        <v>221235</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10189,10 +10199,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>663572.1879546768</v>
+        <v>663519.107425896</v>
       </c>
       <c r="R85" t="n">
-        <v>6986249.995596135</v>
+        <v>6986044.131055305</v>
       </c>
       <c r="S85" t="n">
         <v>15</v>
@@ -10235,6 +10245,11 @@
       <c r="AB85" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>Barrnaturskog i sluttning</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10261,7 +10276,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>88945802</v>
+        <v>88945803</v>
       </c>
       <c r="B86" t="n">
         <v>78527</v>
@@ -10301,10 +10316,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>663519.0173552729</v>
+        <v>663511.181095939</v>
       </c>
       <c r="R86" t="n">
-        <v>6986036.836641697</v>
+        <v>6986102.051705221</v>
       </c>
       <c r="S86" t="n">
         <v>15</v>
@@ -10373,10 +10388,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>88945739</v>
+        <v>88945719</v>
       </c>
       <c r="B87" t="n">
-        <v>89356</v>
+        <v>90676</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10385,25 +10400,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5447</v>
+        <v>5966</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10413,10 +10428,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>663650.0383477315</v>
+        <v>663110.0941239404</v>
       </c>
       <c r="R87" t="n">
-        <v>6986198.779288652</v>
+        <v>6986786.233732361</v>
       </c>
       <c r="S87" t="n">
         <v>15</v>
@@ -10443,7 +10458,7 @@
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="Z87" t="inlineStr">
@@ -10453,17 +10468,12 @@
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-02</t>
         </is>
       </c>
       <c r="AB87" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Tallåga, silverved</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10490,10 +10500,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>88945744</v>
+        <v>88945780</v>
       </c>
       <c r="B88" t="n">
-        <v>89356</v>
+        <v>90676</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10502,25 +10512,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5447</v>
+        <v>5966</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10530,10 +10540,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>663498.8250391249</v>
+        <v>663564.9734051186</v>
       </c>
       <c r="R88" t="n">
-        <v>6986102.798293929</v>
+        <v>6986411.819316222</v>
       </c>
       <c r="S88" t="n">
         <v>15</v>
@@ -10576,6 +10586,11 @@
       <c r="AB88" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>Hällmarkstallskog</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10602,10 +10617,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>88945755</v>
+        <v>88945842</v>
       </c>
       <c r="B89" t="n">
-        <v>89392</v>
+        <v>78479</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10614,25 +10629,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1202</v>
+        <v>392</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10642,10 +10657,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>663551.0724662305</v>
+        <v>663527.0891148702</v>
       </c>
       <c r="R89" t="n">
-        <v>6986089.019298533</v>
+        <v>6986085.081484807</v>
       </c>
       <c r="S89" t="n">
         <v>15</v>
@@ -10692,7 +10707,7 @@
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>Klen granlåga</t>
+          <t>Asp i bergbrant</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10719,10 +10734,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>88945726</v>
+        <v>88945818</v>
       </c>
       <c r="B90" t="n">
-        <v>99398</v>
+        <v>77506</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10731,25 +10746,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>221235</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10759,10 +10774,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>663519.107425896</v>
+        <v>663491.1259720391</v>
       </c>
       <c r="R90" t="n">
-        <v>6986044.131055305</v>
+        <v>6986347.064893151</v>
       </c>
       <c r="S90" t="n">
         <v>15</v>
@@ -10805,11 +10820,6 @@
       <c r="AB90" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>Barrnaturskog i sluttning</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10836,10 +10846,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>88945803</v>
+        <v>88945788</v>
       </c>
       <c r="B91" t="n">
-        <v>78527</v>
+        <v>78569</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10848,25 +10858,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>229497</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10876,10 +10886,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>663511.181095939</v>
+        <v>663548.8882472769</v>
       </c>
       <c r="R91" t="n">
-        <v>6986102.051705221</v>
+        <v>6986087.087178706</v>
       </c>
       <c r="S91" t="n">
         <v>15</v>
@@ -10948,10 +10958,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>88945780</v>
+        <v>88945843</v>
       </c>
       <c r="B92" t="n">
-        <v>90676</v>
+        <v>78479</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10960,25 +10970,25 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>5966</v>
+        <v>392</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -10988,10 +10998,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>663564.9734051186</v>
+        <v>663498.8854372614</v>
       </c>
       <c r="R92" t="n">
-        <v>6986411.819316222</v>
+        <v>6986165.219206189</v>
       </c>
       <c r="S92" t="n">
         <v>15</v>
@@ -11018,7 +11028,7 @@
       </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr">
@@ -11028,7 +11038,7 @@
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-10-03</t>
         </is>
       </c>
       <c r="AB92" t="inlineStr">
@@ -11038,7 +11048,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>Hällmarkstallskog</t>
+          <t>Asp i bergbrant</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11065,10 +11075,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>88945842</v>
+        <v>91960428</v>
       </c>
       <c r="B93" t="n">
-        <v>78479</v>
+        <v>89392</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11077,41 +11087,41 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>392</v>
+        <v>1202</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Ringråberget, Ång</t>
+          <t>Torrmyran, Ång</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>663527.0891148702</v>
+        <v>663340.0935394474</v>
       </c>
       <c r="R93" t="n">
-        <v>6986085.081484807</v>
+        <v>6986302.129644917</v>
       </c>
       <c r="S93" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T93" t="inlineStr">
         <is>
@@ -11135,7 +11145,7 @@
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
@@ -11145,17 +11155,12 @@
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="AB93" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>Asp i bergbrant</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11170,22 +11175,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>88945818</v>
+        <v>91961328</v>
       </c>
       <c r="B94" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11198,37 +11203,37 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Ringråberget, Ång</t>
+          <t>Torrmyran, Ång</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>663491.1259720391</v>
+        <v>663271.0240832372</v>
       </c>
       <c r="R94" t="n">
-        <v>6986347.064893151</v>
+        <v>6986505.94821144</v>
       </c>
       <c r="S94" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -11252,7 +11257,7 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
@@ -11262,7 +11267,7 @@
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="AB94" t="inlineStr">
@@ -11282,19 +11287,19 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>88945788</v>
+        <v>91961049</v>
       </c>
       <c r="B95" t="n">
         <v>78569</v>
@@ -11330,17 +11335,17 @@
       <c r="I95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Ringråberget, Ång</t>
+          <t>Djupmyran, Ång</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>663548.8882472769</v>
+        <v>663468.9668533686</v>
       </c>
       <c r="R95" t="n">
-        <v>6986087.087178706</v>
+        <v>6986134.10337623</v>
       </c>
       <c r="S95" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -11364,7 +11369,7 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
@@ -11374,7 +11379,7 @@
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2020-10-04</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
@@ -11394,22 +11399,22 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>88945843</v>
+        <v>91961017</v>
       </c>
       <c r="B96" t="n">
-        <v>78479</v>
+        <v>77575</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11422,37 +11427,37 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>392</v>
+        <v>637</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Ringråberget, Ång</t>
+          <t>Torrmyran, Ång</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>663498.8854372614</v>
+        <v>663284.9639510504</v>
       </c>
       <c r="R96" t="n">
-        <v>6986165.219206189</v>
+        <v>6986610.055298475</v>
       </c>
       <c r="S96" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -11476,7 +11481,7 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
@@ -11486,17 +11491,12 @@
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2020-10-03</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>Asp i bergbrant</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11511,22 +11511,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>91961049</v>
+        <v>91961576</v>
       </c>
       <c r="B97" t="n">
-        <v>78569</v>
+        <v>78479</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11535,25 +11535,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>392</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Aspgelélav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Collema subnigrescens</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Degel.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11563,10 +11563,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>663468.9668533686</v>
+        <v>663566.8249890712</v>
       </c>
       <c r="R97" t="n">
-        <v>6986134.10337623</v>
+        <v>6986047.893701208</v>
       </c>
       <c r="S97" t="n">
         <v>25</v>
@@ -11635,10 +11635,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>91961576</v>
+        <v>91960341</v>
       </c>
       <c r="B98" t="n">
-        <v>78479</v>
+        <v>89356</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11647,25 +11647,25 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>392</v>
+        <v>5447</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Aspgelélav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Collema subnigrescens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Degel.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -11675,10 +11675,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>663566.8249890712</v>
+        <v>663486.901277368</v>
       </c>
       <c r="R98" t="n">
-        <v>6986047.893701208</v>
+        <v>6986104.022234968</v>
       </c>
       <c r="S98" t="n">
         <v>25</v>
@@ -11747,10 +11747,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>91960341</v>
+        <v>91960429</v>
       </c>
       <c r="B99" t="n">
-        <v>89356</v>
+        <v>89392</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11759,25 +11759,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -11787,10 +11787,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>663486.901277368</v>
+        <v>663486.1952679895</v>
       </c>
       <c r="R99" t="n">
-        <v>6986104.022234968</v>
+        <v>6986108.998493642</v>
       </c>
       <c r="S99" t="n">
         <v>25</v>
@@ -11859,10 +11859,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>91960429</v>
+        <v>91962571</v>
       </c>
       <c r="B100" t="n">
-        <v>89392</v>
+        <v>78503</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11871,25 +11871,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1202</v>
+        <v>6456</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11899,10 +11899,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>663486.1952679895</v>
+        <v>663493.1368907471</v>
       </c>
       <c r="R100" t="n">
-        <v>6986108.998493642</v>
+        <v>6986097.956684866</v>
       </c>
       <c r="S100" t="n">
         <v>25</v>
@@ -11971,10 +11971,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>91962571</v>
+        <v>91962489</v>
       </c>
       <c r="B101" t="n">
-        <v>78503</v>
+        <v>89794</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11987,21 +11987,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6456</v>
+        <v>5321</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -12011,10 +12011,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>663493.1368907471</v>
+        <v>663485.8325190614</v>
       </c>
       <c r="R101" t="n">
-        <v>6986097.956684866</v>
+        <v>6986098.045670984</v>
       </c>
       <c r="S101" t="n">
         <v>25</v>
@@ -12083,10 +12083,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>91962489</v>
+        <v>91961471</v>
       </c>
       <c r="B102" t="n">
-        <v>89794</v>
+        <v>77506</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12095,25 +12095,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5321</v>
+        <v>6425</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -12123,10 +12123,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>663485.8325190614</v>
+        <v>663587.9530176676</v>
       </c>
       <c r="R102" t="n">
-        <v>6986098.045670984</v>
+        <v>6986272.200035869</v>
       </c>
       <c r="S102" t="n">
         <v>25</v>
@@ -12195,10 +12195,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>91961471</v>
+        <v>91961048</v>
       </c>
       <c r="B103" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12211,21 +12211,21 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
@@ -12235,10 +12235,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>663587.9530176676</v>
+        <v>663450.9612640099</v>
       </c>
       <c r="R103" t="n">
-        <v>6986272.200035869</v>
+        <v>6986192.883408062</v>
       </c>
       <c r="S103" t="n">
         <v>25</v>
@@ -12307,10 +12307,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>91961048</v>
+        <v>91961470</v>
       </c>
       <c r="B104" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12323,34 +12323,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Djupmyran, Ång</t>
+          <t>Torrmyran, Ång</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>663450.9612640099</v>
+        <v>663279.8903218758</v>
       </c>
       <c r="R104" t="n">
-        <v>6986192.883408062</v>
+        <v>6986611.167519386</v>
       </c>
       <c r="S104" t="n">
         <v>25</v>
